--- a/results/mp/tinybert/corona/confidence/42/0.15/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/42/0.15/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,100 +40,115 @@
     <t>name</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
     <t>crisis</t>
   </si>
   <si>
+    <t>sc</t>
+  </si>
+  <si>
     <t>panic</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
     <t>best</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
     <t>free</t>
   </si>
   <si>
-    <t>thank</t>
+    <t>safe</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
     <t>well</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>safety</t>
+    <t>heroes</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
     <t>relief</t>
   </si>
   <si>
     <t>hand</t>
   </si>
   <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
     <t>protect</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
     <t>please</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>the</t>
   </si>
 </sst>
 </file>
@@ -491,7 +506,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q26"/>
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -499,10 +514,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -563,10 +578,10 @@
         <v>0.8235294117647058</v>
       </c>
       <c r="C3">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D3">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -578,19 +593,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K3">
-        <v>0.9583333333333334</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="L3">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="M3">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -610,13 +625,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.76</v>
+        <v>0.5856164383561644</v>
       </c>
       <c r="C4">
-        <v>19</v>
+        <v>171</v>
       </c>
       <c r="D4">
-        <v>19</v>
+        <v>171</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -628,19 +643,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>121</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K4">
-        <v>0.9444444444444444</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L4">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="M4">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -660,13 +675,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.6558441558441559</v>
+        <v>0.1957671957671958</v>
       </c>
       <c r="C5">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="D5">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -678,19 +693,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>53</v>
+        <v>152</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K5">
-        <v>0.9375</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L5">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="M5">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -702,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -710,13 +725,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.3218884120171674</v>
+        <v>0.1841085271317829</v>
       </c>
       <c r="C6">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="D6">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -728,19 +743,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>158</v>
+        <v>421</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K6">
-        <v>0.9</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L6">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="M6">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -756,141 +771,69 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7">
-        <v>0.2209302325581395</v>
-      </c>
-      <c r="C7">
+      <c r="J7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7">
+        <v>0.8660714285714286</v>
+      </c>
+      <c r="L7">
+        <v>97</v>
+      </c>
+      <c r="M7">
+        <v>97</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="J8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8">
+        <v>0.8205128205128205</v>
+      </c>
+      <c r="L8">
+        <v>32</v>
+      </c>
+      <c r="M8">
+        <v>32</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="J9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D7">
-        <v>19</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>67</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K7">
-        <v>0.8888888888888888</v>
-      </c>
-      <c r="L7">
-        <v>24</v>
-      </c>
-      <c r="M7">
-        <v>24</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8">
-        <v>0.175</v>
-      </c>
-      <c r="C8">
-        <v>14</v>
-      </c>
-      <c r="D8">
-        <v>14</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>66</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K8">
-        <v>0.8823529411764706</v>
-      </c>
-      <c r="L8">
-        <v>45</v>
-      </c>
-      <c r="M8">
-        <v>45</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9">
-        <v>0.1185185185185185</v>
-      </c>
-      <c r="C9">
-        <v>16</v>
-      </c>
-      <c r="D9">
-        <v>16</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>119</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="K9">
-        <v>0.875</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L9">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="M9">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -902,21 +845,21 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K10">
-        <v>0.8571428571428571</v>
+        <v>0.8046875</v>
       </c>
       <c r="L10">
-        <v>48</v>
+        <v>103</v>
       </c>
       <c r="M10">
-        <v>48</v>
+        <v>103</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -928,21 +871,21 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K11">
-        <v>0.8148148148148148</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -954,21 +897,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K12">
-        <v>0.7450980392156863</v>
+        <v>0.7804878048780488</v>
       </c>
       <c r="L12">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="M12">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -980,21 +923,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="K13">
-        <v>0.6923076923076923</v>
+        <v>0.75</v>
       </c>
       <c r="L13">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="M13">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1006,21 +949,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K14">
-        <v>0.6896551724137931</v>
+        <v>0.7253521126760564</v>
       </c>
       <c r="L14">
-        <v>40</v>
+        <v>103</v>
       </c>
       <c r="M14">
-        <v>40</v>
+        <v>103</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1032,21 +975,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>18</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K15">
-        <v>0.6538461538461539</v>
+        <v>0.6886792452830188</v>
       </c>
       <c r="L15">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="M15">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1058,47 +1001,47 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>9</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K16">
-        <v>0.64</v>
+        <v>0.6862745098039216</v>
       </c>
       <c r="L16">
+        <v>35</v>
+      </c>
+      <c r="M16">
+        <v>35</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16">
         <v>16</v>
-      </c>
-      <c r="M16">
-        <v>16</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>9</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K17">
-        <v>0.6206896551724138</v>
+        <v>0.65625</v>
       </c>
       <c r="L17">
-        <v>18</v>
+        <v>105</v>
       </c>
       <c r="M17">
-        <v>18</v>
+        <v>105</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1110,21 +1053,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>11</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K18">
+        <v>0.6458333333333334</v>
+      </c>
+      <c r="L18">
         <v>31</v>
       </c>
-      <c r="K18">
-        <v>0.6060606060606061</v>
-      </c>
-      <c r="L18">
-        <v>20</v>
-      </c>
       <c r="M18">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1136,21 +1079,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K19">
-        <v>0.6027397260273972</v>
+        <v>0.5851063829787234</v>
       </c>
       <c r="L19">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="M19">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1162,21 +1105,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>29</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K20">
-        <v>0.5600000000000001</v>
+        <v>0.574468085106383</v>
       </c>
       <c r="L20">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="M20">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1188,21 +1131,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K21">
-        <v>0.5586854460093896</v>
+        <v>0.5079365079365079</v>
       </c>
       <c r="L21">
-        <v>119</v>
+        <v>32</v>
       </c>
       <c r="M21">
-        <v>119</v>
+        <v>32</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1214,21 +1157,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>94</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K22">
         <v>0.5</v>
       </c>
       <c r="L22">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="M22">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1240,21 +1183,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K23">
-        <v>0.4513888888888889</v>
+        <v>0.4960835509138381</v>
       </c>
       <c r="L23">
-        <v>65</v>
+        <v>190</v>
       </c>
       <c r="M23">
-        <v>65</v>
+        <v>190</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1266,21 +1209,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>79</v>
+        <v>193</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K24">
-        <v>0.4496124031007752</v>
+        <v>0.4558823529411765</v>
       </c>
       <c r="L24">
-        <v>58</v>
+        <v>155</v>
       </c>
       <c r="M24">
-        <v>58</v>
+        <v>155</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1292,21 +1235,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>71</v>
+        <v>185</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K25">
-        <v>0.4</v>
+        <v>0.449438202247191</v>
       </c>
       <c r="L25">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="M25">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1318,33 +1261,241 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>21</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K26">
+        <v>0.4305084745762712</v>
+      </c>
+      <c r="L26">
+        <v>127</v>
+      </c>
+      <c r="M26">
+        <v>127</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="27" spans="10:17">
+      <c r="J27" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K27">
+        <v>0.3974358974358974</v>
+      </c>
+      <c r="L27">
+        <v>31</v>
+      </c>
+      <c r="M27">
+        <v>31</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="10:17">
+      <c r="J28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K28">
+        <v>0.3698630136986301</v>
+      </c>
+      <c r="L28">
+        <v>27</v>
+      </c>
+      <c r="M28">
+        <v>27</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="10:17">
+      <c r="J29" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K26">
-        <v>0.391304347826087</v>
-      </c>
-      <c r="L26">
-        <v>36</v>
-      </c>
-      <c r="M26">
-        <v>36</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>56</v>
+      <c r="K29">
+        <v>0.3263598326359833</v>
+      </c>
+      <c r="L29">
+        <v>78</v>
+      </c>
+      <c r="M29">
+        <v>78</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="30" spans="10:17">
+      <c r="J30" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K30">
+        <v>0.02083333333333333</v>
+      </c>
+      <c r="L30">
+        <v>25</v>
+      </c>
+      <c r="M30">
+        <v>25</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="31" spans="10:17">
+      <c r="J31" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K31">
+        <v>0.009363295880149813</v>
+      </c>
+      <c r="L31">
+        <v>25</v>
+      </c>
+      <c r="M31">
+        <v>28</v>
+      </c>
+      <c r="N31">
+        <v>0.89</v>
+      </c>
+      <c r="O31">
+        <v>0.11</v>
+      </c>
+      <c r="P31" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q31">
+        <v>2645</v>
+      </c>
+    </row>
+    <row r="32" spans="10:17">
+      <c r="J32" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K32">
+        <v>0.008094357076780759</v>
+      </c>
+      <c r="L32">
+        <v>35</v>
+      </c>
+      <c r="M32">
+        <v>39</v>
+      </c>
+      <c r="N32">
+        <v>0.9</v>
+      </c>
+      <c r="O32">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="P32" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q32">
+        <v>4289</v>
+      </c>
+    </row>
+    <row r="33" spans="10:17">
+      <c r="J33" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K33">
+        <v>0.007408890668802563</v>
+      </c>
+      <c r="L33">
+        <v>37</v>
+      </c>
+      <c r="M33">
+        <v>39</v>
+      </c>
+      <c r="N33">
+        <v>0.95</v>
+      </c>
+      <c r="O33">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P33" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q33">
+        <v>4957</v>
+      </c>
+    </row>
+    <row r="34" spans="10:17">
+      <c r="J34" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K34">
+        <v>0.006005424254165052</v>
+      </c>
+      <c r="L34">
+        <v>31</v>
+      </c>
+      <c r="M34">
+        <v>34</v>
+      </c>
+      <c r="N34">
+        <v>0.91</v>
+      </c>
+      <c r="O34">
+        <v>0.08999999999999997</v>
+      </c>
+      <c r="P34" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q34">
+        <v>5131</v>
       </c>
     </row>
   </sheetData>
